--- a/botCode/excelDatabase/11class/11class.xlsx
+++ b/botCode/excelDatabase/11class/11class.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Михаил\Desktop\работа\excelDatabase\11class\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
   </bookViews>
@@ -656,18 +661,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <i/>
-        <sz val="3.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>перерыв 30 минут</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="3.5"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -871,12 +864,15 @@
       </rPr>
       <t>Электив по информационным технологиям (дистанционный) 19:00 (Киселёва Е.Ю.)</t>
     </r>
+  </si>
+  <si>
+    <t>перерыв 30 минут</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1208,6 +1204,51 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1217,15 +1258,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1253,44 +1285,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,7 +1348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1387,7 +1383,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1598,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1623,62 +1619,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="45"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="48"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2205,24 +2201,24 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="26"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="33"/>
     </row>
     <row r="17" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -2668,8 +2664,8 @@
       <c r="E26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="11"/>
       <c r="I26" s="3" t="s">
         <v>38</v>
@@ -2737,44 +2733,44 @@
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="27"/>
     </row>
     <row r="30" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="33"/>
     </row>
     <row r="31" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
@@ -3114,10 +3110,10 @@
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="42"/>
+      <c r="B38" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="48"/>
       <c r="D38" s="8" t="s">
         <v>18</v>
       </c>
@@ -3148,10 +3144,10 @@
       <c r="M38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N38" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="O38" s="42"/>
+      <c r="N38" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="O38" s="48"/>
       <c r="P38" s="11"/>
     </row>
     <row r="39" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3159,10 +3155,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="D39" s="7">
         <v>308</v>
@@ -3171,30 +3167,30 @@
         <v>37</v>
       </c>
       <c r="F39" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J39" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="L39" s="11"/>
       <c r="M39" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N39" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O39" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="P39" s="11"/>
     </row>
@@ -3203,10 +3199,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="D40" s="7">
         <v>308</v>
@@ -3215,10 +3211,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="H40" s="7">
         <v>307</v>
@@ -3227,20 +3223,20 @@
         <v>38</v>
       </c>
       <c r="J40" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="K40" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="N40" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O40" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="O40" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="P40" s="11"/>
     </row>
@@ -3249,20 +3245,20 @@
         <v>41</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H41" s="7">
         <v>307</v>
@@ -3271,98 +3267,98 @@
         <v>41</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L41" s="11"/>
       <c r="M41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="N41" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P41" s="11"/>
     </row>
     <row r="42" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="9"/>
       <c r="J42" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L42" s="11"/>
       <c r="M42" s="9"/>
       <c r="N42" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O42" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="27"/>
+    </row>
+    <row r="44" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="P42" s="11"/>
-    </row>
-    <row r="43" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-    </row>
-    <row r="44" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="26"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="33"/>
     </row>
     <row r="45" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -3519,25 +3515,25 @@
         <v>22</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>22</v>
@@ -3565,25 +3561,25 @@
         <v>29</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>29</v>
@@ -3601,10 +3597,10 @@
         <v>29</v>
       </c>
       <c r="N49" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O49" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="P49" s="7">
         <v>405</v>
@@ -3639,10 +3635,10 @@
         <v>30</v>
       </c>
       <c r="J50" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="L50" s="7">
         <v>405</v>
@@ -3715,10 +3711,10 @@
         <v>32</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D52" s="7">
         <v>405</v>
@@ -3775,10 +3771,10 @@
         <v>37</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="H53" s="7">
         <v>405</v>
@@ -3786,8 +3782,8 @@
       <c r="I53" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J53" s="36"/>
-      <c r="K53" s="37"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="35"/>
       <c r="L53" s="11"/>
       <c r="M53" s="2" t="s">
         <v>37</v>
@@ -3873,44 +3869,44 @@
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="40"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="27"/>
     </row>
     <row r="58" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="26"/>
+      <c r="A58" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="33"/>
     </row>
     <row r="59" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -3995,13 +3991,13 @@
         <v>9</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4041,13 +4037,13 @@
         <v>19</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4225,13 +4221,13 @@
         <v>31</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K65" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L65" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>31</v>
@@ -4256,22 +4252,22 @@
       <c r="E66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F66" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66" s="42"/>
+      <c r="F66" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="48"/>
       <c r="H66" s="11"/>
       <c r="I66" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K66" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L66" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>32</v>
@@ -4297,10 +4293,10 @@
         <v>37</v>
       </c>
       <c r="F67" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G67" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="H67" s="7">
         <v>402</v>
@@ -4407,123 +4403,120 @@
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="38"/>
+    </row>
+    <row r="72" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="23"/>
-    </row>
-    <row r="72" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="24" t="s">
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="33"/>
+    </row>
+    <row r="73" spans="1:16" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="39"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="41"/>
+    </row>
+    <row r="74" spans="1:16" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="26"/>
-    </row>
-    <row r="73" spans="1:16" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="27"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="29"/>
-    </row>
-    <row r="74" spans="1:16" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="31"/>
-      <c r="P74" s="32"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="44"/>
     </row>
     <row r="75" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="33"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34"/>
-      <c r="O75" s="34"/>
-      <c r="P75" s="35"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="17">
+    <mergeCell ref="A71:P71"/>
+    <mergeCell ref="A72:P72"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A44:P44"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="A57:P57"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="A30:P30"/>
+    <mergeCell ref="A43:P43"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="A30:P30"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="A44:P44"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="A57:P57"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="A71:P71"/>
-    <mergeCell ref="A72:P72"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A75:P75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
